--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamai-k\Documents\JR\VScodeProjects\dutyDecisionOrTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6357B9-DECE-4273-80CE-81888CAA3525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D798702F-8C7C-495D-A38B-316758EE30CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="640" windowWidth="29530" windowHeight="19250" xr2:uid="{14E3E50C-EE8B-442B-9088-9AF4DACC816E}"/>
+    <workbookView xWindow="1650" yWindow="520" windowWidth="21180" windowHeight="19250" xr2:uid="{14E3E50C-EE8B-442B-9088-9AF4DACC816E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>尾崎誠一</t>
-  </si>
-  <si>
     <t>高見澤路草</t>
   </si>
   <si>
@@ -229,12 +226,22 @@
   <si>
     <t>　</t>
   </si>
+  <si>
+    <t>尾崎泰</t>
+    <rPh sb="0" eb="2">
+      <t>オザキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,6 +704,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,9 +833,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -863,7 +873,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -969,7 +979,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1111,7 +1121,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1125,10 +1135,10 @@
   <dimension ref="A1:BB31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" thickTop="1" thickBottom="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" thickTop="1" thickBottom="1"/>
   <cols>
     <col min="1" max="1" width="11" style="30" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="30" customWidth="1"/>
@@ -1137,7 +1147,7 @@
     <col min="58" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="21" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:54" s="21" customFormat="1" thickTop="1" thickBot="1">
       <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:54" thickTop="1" thickBot="1">
       <c r="A2" s="24">
         <v>45931</v>
       </c>
@@ -1359,7 +1369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="41" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:54" s="41" customFormat="1" thickTop="1" thickBot="1">
       <c r="A3" s="31" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="41" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:54" s="41" customFormat="1" thickTop="1" thickBot="1">
       <c r="A4" s="31"/>
       <c r="B4" s="42" t="s">
         <v>1</v>
@@ -1627,12 +1637,12 @@
       <c r="BA4" s="44"/>
       <c r="BB4" s="44"/>
     </row>
-    <row r="5" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:54" thickTop="1" thickBot="1">
       <c r="A5" s="30">
         <v>2</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="47"/>
@@ -1649,108 +1659,108 @@
       <c r="M5" s="46"/>
       <c r="N5" s="46"/>
       <c r="O5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AN5" s="4"/>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
       <c r="AZ5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:54" thickTop="1" thickBot="1">
       <c r="A6" s="30">
         <v>2</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="50"/>
@@ -1766,7 +1776,7 @@
       <c r="N6" s="49"/>
       <c r="O6" s="6"/>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="9"/>
@@ -1777,13 +1787,13 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
@@ -1793,13 +1803,13 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
@@ -1808,7 +1818,7 @@
       <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS6" s="8"/>
       <c r="AT6" s="9"/>
@@ -1819,18 +1829,18 @@
       <c r="AY6" s="8"/>
       <c r="AZ6" s="8"/>
       <c r="BA6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:54" thickTop="1" thickBot="1">
       <c r="A7" s="30">
         <v>2</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="47"/>
@@ -1848,111 +1858,111 @@
       <c r="N7" s="46"/>
       <c r="O7" s="11"/>
       <c r="P7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z7" s="13"/>
       <c r="AA7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC7" s="14"/>
       <c r="AD7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE7" s="14"/>
       <c r="AF7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH7" s="13"/>
       <c r="AI7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AL7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM7" s="14"/>
       <c r="AN7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AP7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AQ7" s="13"/>
       <c r="AR7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AT7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AU7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV7" s="14"/>
       <c r="AW7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AY7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AZ7" s="13"/>
       <c r="BA7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB7" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:54" thickTop="1" thickBot="1">
       <c r="A8" s="30">
         <v>1</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="50"/>
@@ -1970,50 +1980,50 @@
       <c r="N8" s="49"/>
       <c r="O8" s="6"/>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="9"/>
@@ -2021,12 +2031,12 @@
       <c r="AM8" s="9"/>
       <c r="AN8" s="9"/>
       <c r="AO8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AP8" s="8"/>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS8" s="8"/>
       <c r="AT8" s="9"/>
@@ -2037,16 +2047,16 @@
       <c r="AY8" s="8"/>
       <c r="AZ8" s="8"/>
       <c r="BA8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB8" s="10"/>
     </row>
-    <row r="9" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:54" thickTop="1" thickBot="1">
       <c r="A9" s="30">
         <v>2</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="47"/>
@@ -2061,10 +2071,10 @@
       <c r="M9" s="46"/>
       <c r="N9" s="46"/>
       <c r="O9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="13" t="s">
         <v>14</v>
@@ -2072,107 +2082,107 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="W9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X9" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="Y9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z9" s="13"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AC9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH9" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="AI9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AK9" s="14"/>
       <c r="AL9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AM9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ9" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="AR9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS9" s="13"/>
       <c r="AT9" s="14"/>
       <c r="AU9" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV9" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW9" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AY9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AZ9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BA9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB9" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:54" thickTop="1" thickBot="1">
       <c r="A10" s="30">
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="50"/>
@@ -2189,120 +2199,120 @@
       </c>
       <c r="N10" s="49"/>
       <c r="O10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="AP10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AQ10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AR10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AT10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AU10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AY10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AZ10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BA10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:54" thickTop="1" thickBot="1">
       <c r="A11" s="30">
         <v>2</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
@@ -2319,25 +2329,25 @@
       <c r="M11" s="46"/>
       <c r="N11" s="46"/>
       <c r="O11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V11" s="13"/>
       <c r="W11" s="13" t="s">
@@ -2345,7 +2355,7 @@
       </c>
       <c r="X11" s="13"/>
       <c r="Y11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z11" s="13"/>
       <c r="AA11" s="14"/>
@@ -2354,79 +2364,79 @@
         <v>14</v>
       </c>
       <c r="AD11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG11" s="13"/>
       <c r="AH11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK11" s="14"/>
       <c r="AL11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM11" s="14"/>
       <c r="AN11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AP11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AQ11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AR11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AT11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AU11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX11" s="13"/>
       <c r="AY11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AZ11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BA11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB11" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:54" thickTop="1" thickBot="1">
       <c r="A12" s="30">
         <v>2</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="49" t="s">
         <v>14</v>
@@ -2443,120 +2453,120 @@
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
       <c r="O12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="W12" s="8"/>
       <c r="X12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF12" s="9"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="AP12" s="8"/>
       <c r="AQ12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AR12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AT12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AU12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX12" s="8"/>
       <c r="AY12" s="8"/>
       <c r="AZ12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BA12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:54" thickTop="1" thickBot="1">
       <c r="A13" s="30">
         <v>2</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="47"/>
@@ -2574,129 +2584,129 @@
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W13" s="13" t="s">
         <v>14</v>
       </c>
       <c r="X13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AN13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AP13" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AQ13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AR13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AT13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AU13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AY13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AZ13" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BA13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB13" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:54" thickTop="1" thickBot="1">
       <c r="A14" s="30">
         <v>2</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="50"/>
@@ -2712,22 +2722,22 @@
       <c r="N14" s="49"/>
       <c r="O14" s="6"/>
       <c r="P14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V14" s="8"/>
       <c r="W14" s="8" t="s">
@@ -2737,7 +2747,7 @@
         <v>14</v>
       </c>
       <c r="Y14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z14" s="8" t="s">
         <v>14</v>
@@ -2747,61 +2757,61 @@
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AF14" s="9" t="s">
+      <c r="AH14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AG14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH14" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="AI14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AJ14" s="8" t="s">
+      <c r="AQ14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AK14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ14" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="AR14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS14" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AT14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AU14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX14" s="8"/>
       <c r="AY14" s="8" t="s">
@@ -2811,18 +2821,18 @@
         <v>14</v>
       </c>
       <c r="BA14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB14" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:54" thickTop="1" thickBot="1">
       <c r="A15" s="30">
         <v>2</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="47"/>
@@ -2840,111 +2850,111 @@
         <v>14</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AI15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ15" s="13"/>
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
       <c r="AM15" s="14"/>
       <c r="AN15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AP15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AQ15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="AR15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS15" s="13"/>
       <c r="AT15" s="14"/>
       <c r="AU15" s="14"/>
       <c r="AV15" s="14"/>
       <c r="AW15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AY15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AZ15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="BA15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB15" s="15"/>
     </row>
-    <row r="16" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:54" thickTop="1" thickBot="1">
       <c r="A16" s="30">
         <v>2</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
@@ -2960,41 +2970,41 @@
       <c r="N16" s="49"/>
       <c r="O16" s="6"/>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE16" s="9" t="s">
         <v>14</v>
@@ -3005,7 +3015,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ16" s="8" t="s">
         <v>14</v>
@@ -3026,41 +3036,41 @@
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
       <c r="AR16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS16" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AT16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AU16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX16" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AY16" s="8"/>
       <c r="AZ16" s="8"/>
       <c r="BA16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:54" thickTop="1" thickBot="1">
       <c r="A17" s="30">
         <v>2</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="47"/>
@@ -3078,7 +3088,7 @@
       <c r="N17" s="46"/>
       <c r="O17" s="11"/>
       <c r="P17" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="13"/>
       <c r="R17" s="14"/>
@@ -3089,7 +3099,7 @@
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z17" s="13"/>
       <c r="AA17" s="14"/>
@@ -3101,7 +3111,7 @@
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
       <c r="AI17" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="14"/>
@@ -3112,41 +3122,41 @@
       <c r="AP17" s="13"/>
       <c r="AQ17" s="13"/>
       <c r="AR17" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS17" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AT17" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AU17" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV17" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW17" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX17" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AY17" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AZ17" s="13"/>
       <c r="BA17" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB17" s="15"/>
     </row>
-    <row r="18" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:54" thickTop="1" thickBot="1">
       <c r="A18" s="30">
         <v>2</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
@@ -3164,7 +3174,7 @@
         <v>14</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="9" t="s">
@@ -3173,79 +3183,79 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V18" s="8"/>
       <c r="W18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X18" s="8"/>
       <c r="Y18" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH18" s="8"/>
       <c r="AI18" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AN18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AP18" s="8"/>
       <c r="AQ18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="AR18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT18" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="AS18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT18" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="AU18" s="9"/>
       <c r="AV18" s="9"/>
       <c r="AW18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX18" s="8"/>
       <c r="AY18" s="8"/>
@@ -3253,16 +3263,16 @@
         <v>14</v>
       </c>
       <c r="BA18" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB18" s="10"/>
     </row>
-    <row r="19" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:54" thickTop="1" thickBot="1">
       <c r="A19" s="30">
         <v>2</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>18</v>
+      <c r="B19" s="58" t="s">
+        <v>39</v>
       </c>
       <c r="C19" s="46"/>
       <c r="D19" s="47"/>
@@ -3277,40 +3287,40 @@
       <c r="M19" s="46"/>
       <c r="N19" s="46"/>
       <c r="O19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="W19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA19" s="14" t="s">
         <v>14</v>
@@ -3319,90 +3329,90 @@
         <v>14</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AN19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AP19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AQ19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AR19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AT19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AU19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AY19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AZ19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BA19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB19" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:54" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:54" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="30">
         <v>2</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="50"/>
@@ -3420,39 +3430,39 @@
       <c r="N20" s="49"/>
       <c r="O20" s="6"/>
       <c r="P20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z20" s="8"/>
       <c r="AA20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE20" s="9" t="s">
         <v>14</v>
@@ -3465,7 +3475,7 @@
         <v>14</v>
       </c>
       <c r="AI20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ20" s="8" t="s">
         <v>14</v>
@@ -3480,41 +3490,41 @@
         <v>14</v>
       </c>
       <c r="AN20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
       <c r="AQ20" s="8"/>
       <c r="AR20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS20" s="8"/>
       <c r="AT20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AU20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX20" s="8"/>
       <c r="AY20" s="8"/>
       <c r="AZ20" s="8"/>
       <c r="BA20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB20" s="10"/>
     </row>
-    <row r="21" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:54" thickTop="1" thickBot="1">
       <c r="A21" s="30">
         <v>0</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="46"/>
       <c r="D21" s="47" t="s">
@@ -3532,22 +3542,22 @@
       <c r="N21" s="46"/>
       <c r="O21" s="11"/>
       <c r="P21" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z21" s="13"/>
       <c r="AA21" s="14"/>
@@ -3559,7 +3569,7 @@
       <c r="AG21" s="13"/>
       <c r="AH21" s="13"/>
       <c r="AI21" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ21" s="13"/>
       <c r="AK21" s="14"/>
@@ -3570,35 +3580,35 @@
       <c r="AP21" s="13"/>
       <c r="AQ21" s="13"/>
       <c r="AR21" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS21" s="13"/>
       <c r="AT21" s="14"/>
       <c r="AU21" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV21" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AW21" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX21" s="13"/>
       <c r="AY21" s="13"/>
       <c r="AZ21" s="13"/>
       <c r="BA21" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB21" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:54" thickTop="1" thickBot="1">
       <c r="A22" s="30">
         <v>2</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="50"/>
@@ -3615,124 +3625,124 @@
       <c r="M22" s="49"/>
       <c r="N22" s="49"/>
       <c r="O22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R22" s="9"/>
       <c r="S22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T22" s="9"/>
       <c r="U22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AG22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AN22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AP22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AQ22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AR22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AT22" s="9"/>
       <c r="AU22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AV22" s="9"/>
       <c r="AW22" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AY22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AZ22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BA22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB22" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:54" thickTop="1" thickBot="1">
       <c r="A23" s="30">
         <v>2</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="47"/>
@@ -3747,42 +3757,42 @@
       <c r="M23" s="46"/>
       <c r="N23" s="46"/>
       <c r="O23" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R23" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S23" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T23" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U23" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
       <c r="X23" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y23" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z23" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA23" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB23" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC23" s="19"/>
       <c r="AD23" s="19"/>
@@ -3790,10 +3800,10 @@
       <c r="AF23" s="19"/>
       <c r="AG23" s="18"/>
       <c r="AH23" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI23" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
@@ -3803,10 +3813,10 @@
       <c r="AO23" s="18"/>
       <c r="AP23" s="18"/>
       <c r="AQ23" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AR23" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS23" s="18"/>
       <c r="AT23" s="19"/>
@@ -3816,14 +3826,14 @@
       <c r="AX23" s="18"/>
       <c r="AY23" s="18"/>
       <c r="AZ23" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BA23" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BB23" s="20"/>
     </row>
-    <row r="24" spans="1:54" s="52" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:54" s="52" customFormat="1" thickTop="1" thickBot="1">
       <c r="B24" s="52" t="s">
         <v>2</v>
       </c>
@@ -3880,7 +3890,7 @@
       <c r="BA24" s="53"/>
       <c r="BB24" s="53"/>
     </row>
-    <row r="25" spans="1:54" s="52" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:54" s="52" customFormat="1" thickTop="1" thickBot="1">
       <c r="A25" s="52" t="s">
         <v>15</v>
       </c>
@@ -3935,7 +3945,7 @@
       <c r="AY25" s="54"/>
       <c r="AZ25" s="54"/>
     </row>
-    <row r="26" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:54" thickTop="1" thickBot="1">
       <c r="A26" s="55">
         <f>SUM(A5:A23)</f>
         <v>35</v>
@@ -3991,7 +4001,7 @@
       <c r="AY26" s="56"/>
       <c r="AZ26" s="56"/>
     </row>
-    <row r="27" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:54" thickTop="1" thickBot="1">
       <c r="A27" s="30" t="s">
         <v>16</v>
       </c>
@@ -4046,7 +4056,7 @@
       <c r="AY27" s="56"/>
       <c r="AZ27" s="56"/>
     </row>
-    <row r="28" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:54" thickTop="1" thickBot="1">
       <c r="A28" s="30">
         <f ca="1">MATCH("end",1:1,0) - MATCH("start", 1:1, 0) +1 - COUNTIF(INDIRECT(ADDRESS(2, MATCH("start", 1:1, 0))&amp;":"&amp;ADDRESS(2,MATCH("end",1:1,0))),"木")</f>
         <v>35</v>
@@ -4102,7 +4112,7 @@
       <c r="AY28" s="56"/>
       <c r="AZ28" s="56"/>
     </row>
-    <row r="29" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:54" thickTop="1" thickBot="1">
       <c r="C29" s="56"/>
       <c r="D29" s="56"/>
       <c r="E29" s="56"/>
@@ -4154,10 +4164,10 @@
       <c r="AY29" s="56"/>
       <c r="AZ29" s="56"/>
     </row>
-    <row r="30" spans="1:54" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:54" thickTop="1" thickBot="1">
       <c r="B30" s="57"/>
     </row>
-    <row r="31" spans="1:54" ht="18" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" spans="1:54" ht="18"/>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2"/>
@@ -4181,15 +4191,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100619D2C9B8D142340870431A4B74E7CD4" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc60732dd4b847b1d216bf511c7e782b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3d2267b6-ada1-4ade-a76e-09a55898c55c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddde0ef8e554c7755c84006a13932f6f" ns3:_="">
     <xsd:import namespace="3d2267b6-ada1-4ade-a76e-09a55898c55c"/>
@@ -4377,6 +4378,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC91A761-6815-44CF-B77D-6FDA929CA4EB}">
   <ds:schemaRefs>
@@ -4394,14 +4404,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1B6196F-B2AF-44B0-B000-F183CA15E463}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C706BE5C-7F36-49AF-AE93-AB4BC034F721}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4417,4 +4419,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1B6196F-B2AF-44B0-B000-F183CA15E463}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>